--- a/cash_sale.xlsx
+++ b/cash_sale.xlsx
@@ -49,6 +49,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -149,7 +150,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -157,11 +158,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -248,9 +249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>738720</xdr:colOff>
+      <xdr:colOff>738360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -264,7 +265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3814920" y="993600"/>
-          <a:ext cx="174960" cy="168840"/>
+          <a:ext cx="174600" cy="168480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -285,9 +286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>736560</xdr:colOff>
+      <xdr:colOff>736200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -301,7 +302,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3811680" y="1177560"/>
-          <a:ext cx="176040" cy="169920"/>
+          <a:ext cx="175680" cy="169560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -322,9 +323,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>728640</xdr:colOff>
+      <xdr:colOff>728280</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -338,7 +339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3816000" y="1370160"/>
-          <a:ext cx="163800" cy="152280"/>
+          <a:ext cx="163440" cy="151920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -359,9 +360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>735120</xdr:colOff>
+      <xdr:colOff>734760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -375,7 +376,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3816720" y="1536840"/>
-          <a:ext cx="169560" cy="163800"/>
+          <a:ext cx="169200" cy="163440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>319320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>118080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>197640</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="319320" y="118080"/>
+          <a:ext cx="2316600" cy="1574640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -397,8 +435,8 @@
   </sheetPr>
   <dimension ref="D2:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
